--- a/簿记/Manufacturing Account/Question 1.xlsx
+++ b/簿记/Manufacturing Account/Question 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18917213-231F-6A4B-AAC9-7254FFFF91F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8186C8A-D242-B441-8928-B418313E8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB6227EA-F880-2A41-89C2-38A9DC2FA196}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AB6227EA-F880-2A41-89C2-38A9DC2FA196}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Cost of Materials Consumed</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Depreciation of Factory Machinery (1,500,000 x 10% x 1/2)</t>
   </si>
   <si>
-    <t>Production Cost of Finished Goods c/d</t>
-  </si>
-  <si>
     <t>Manufacturing Account</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Less: Cost of Sales</t>
   </si>
   <si>
-    <t>Production Cost of Finished Goods b/d</t>
-  </si>
-  <si>
     <t>Gross Profit</t>
   </si>
   <si>
@@ -145,6 +139,9 @@
   </si>
   <si>
     <t>Direct Wages (150,000 x 70%)</t>
+  </si>
+  <si>
+    <t>Production Cost of Finished Goods, at Market Price</t>
   </si>
 </sst>
 </file>
@@ -277,14 +274,14 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +602,7 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="125" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -618,28 +615,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,9 +647,7 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -667,8 +662,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7">
         <v>45000</v>
       </c>
     </row>
@@ -692,8 +686,7 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7">
+      <c r="B10" s="7">
         <f>B8+B9</f>
         <v>239500</v>
       </c>
@@ -703,21 +696,19 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="8">
+        <v>8900</v>
+      </c>
       <c r="C11" s="8">
-        <v>8900</v>
-      </c>
-      <c r="D11" s="8">
-        <f>C10+C11</f>
+        <f>B10+B11</f>
         <v>248400</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <f>D7+D11</f>
+      <c r="C12" s="7">
+        <f>C7+C11</f>
         <v>293400</v>
       </c>
     </row>
@@ -726,23 +717,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
+      <c r="C13" s="8">
         <v>-53000</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <f>D12+D13</f>
+      <c r="C14" s="7">
+        <f>C12+C13</f>
         <v>240400</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -750,17 +739,17 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>150000*70%</f>
         <v>105000</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -773,20 +762,16 @@
       <c r="C18" s="8">
         <v>65000</v>
       </c>
-      <c r="D18" s="8">
-        <f>C16+C18</f>
-        <v>170000</v>
-      </c>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <f>D14+D18</f>
-        <v>410400</v>
+      <c r="C19" s="7">
+        <f>C14+D18</f>
+        <v>240400</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,126 +786,114 @@
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7">
+      <c r="B21" s="7">
         <f>12000*75%</f>
         <v>9000</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7">
+      <c r="B22" s="7">
         <f>(27500+2500)*75%</f>
         <v>22500</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7">
+      <c r="B23" s="7">
         <f>(31500 - 2000) * 75%</f>
         <v>22125</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7">
+      <c r="B24" s="7">
         <f>150000*30%</f>
         <v>45000</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7">
+      <c r="B25" s="7">
         <v>64000</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7">
+      <c r="B26" s="7">
         <f>25000*75%</f>
         <v>18750</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7">
+      <c r="B27" s="7">
         <v>57800</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8">
+      <c r="B28" s="8">
         <f>150000 * 1/2</f>
         <v>75000</v>
       </c>
-      <c r="D28" s="8">
-        <f>SUM(C21:C28)</f>
+      <c r="C28" s="8">
+        <f>SUM(B21:B28)</f>
         <v>314175</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <f>D19+D28</f>
-        <v>724575</v>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <f>C19+C28</f>
+        <v>554575</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8">
         <v>28000</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <f>D29+D30</f>
-        <v>752575</v>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
+        <f>C29+C30</f>
+        <v>582575</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8">
         <v>-37000</v>
       </c>
     </row>
@@ -928,31 +901,28 @@
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7">
-        <f>D31+D32</f>
-        <v>715575</v>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7">
+        <f>C31+C32</f>
+        <v>545575</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8">
-        <f>D35-D33</f>
-        <v>234425</v>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8">
+        <f>C35-C33</f>
+        <v>404425</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10">
         <v>950000</v>
       </c>
     </row>
@@ -1094,12 +1064,12 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1110,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,25 +1093,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
@@ -1157,7 +1127,7 @@
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14">
@@ -1166,7 +1136,7 @@
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1182,7 +1152,7 @@
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16">
         <v>950000</v>
@@ -1211,14 +1181,14 @@
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14">
@@ -1228,7 +1198,7 @@
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="16">
